--- a/test/perl_output/conditional_format.xlsx
+++ b/test/perl_output/conditional_format.xlsx
@@ -8,15 +8,52 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
-    <t>Cells with values &gt;= 50 are in light red. Values &lt; 50 are in light green</t>
+    <t>Cells with values &gt;= 50 are in light red. Values &lt; 50 are in light green.</t>
+  </si>
+  <si>
+    <t>Values between 30 and 70 are in light red. Values outside that range are in light green.</t>
+  </si>
+  <si>
+    <t>Duplicate values are in light red. Unique values are in light green.</t>
+  </si>
+  <si>
+    <t>Above average values are in light red. Below average values are in light green.</t>
+  </si>
+  <si>
+    <t>Top 10 values are in light red. Bottom 10 values are in light green.</t>
+  </si>
+  <si>
+    <t>Cells with values &gt;= 50 are in light red. Values &lt; 50 are in light green. Non-contiguous ranges.</t>
+  </si>
+  <si>
+    <t>Examples of color scales and data bars. Default colors.</t>
+  </si>
+  <si>
+    <t>2 Color Scale</t>
+  </si>
+  <si>
+    <t>3 Color Scale</t>
+  </si>
+  <si>
+    <t>Data Bars</t>
+  </si>
+  <si>
+    <t>Examples of color scales and data bars. Modified colors.</t>
   </si>
 </sst>
 </file>
@@ -382,322 +419,322 @@
     </row>
     <row r="3" spans="1:11">
       <c r="B3">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>70</v>
-      </c>
       <c r="I4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
       <c r="I6">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="J6">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
       <c r="E8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>80</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
       <c r="G9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
         <v>90</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
       </c>
       <c r="H11">
         <v>80</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J11">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -711,4 +748,2108 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>30</formula>
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+      <formula>30</formula>
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K12">
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="2" aboveAverage="0"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K12">
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K6 B9:K12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFC5D9F1"/>
+        <color rgb="FF8DB4E3"/>
+        <color rgb="FF538ED5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>